--- a/data/trans_orig/P32D_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>26445</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18173</v>
+        <v>17611</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37241</v>
+        <v>37242</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1246692668450225</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08567174535998846</v>
+        <v>0.08302429822526239</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1755646311292276</v>
+        <v>0.175572544383439</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -762,19 +762,19 @@
         <v>37309</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27865</v>
+        <v>28928</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47273</v>
+        <v>47151</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3247324279141137</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2425358894411913</v>
+        <v>0.2517826782803158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4114540694200893</v>
+        <v>0.4103902854992312</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -783,19 +783,19 @@
         <v>63754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50570</v>
+        <v>51080</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76969</v>
+        <v>77939</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1949593440371836</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1546423368506423</v>
+        <v>0.1562023079301301</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2353710208718229</v>
+        <v>0.2383363848529376</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>89705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>73975</v>
+        <v>74765</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>105148</v>
+        <v>104972</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.422895655964927</v>
+        <v>0.4228956559649268</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3487423344639405</v>
+        <v>0.352465447895046</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.49569969083995</v>
+        <v>0.4948713221065619</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -833,19 +833,19 @@
         <v>41469</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32355</v>
+        <v>32668</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51440</v>
+        <v>51419</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3609375290167863</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2816094095099015</v>
+        <v>0.2843401276955601</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4477239690306816</v>
+        <v>0.4475399098520607</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>136</v>
@@ -854,19 +854,19 @@
         <v>131173</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>113493</v>
+        <v>113377</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>149932</v>
+        <v>149732</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4011273228915404</v>
+        <v>0.4011273228915405</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3470613821974157</v>
+        <v>0.3467045402032689</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4584920306209165</v>
+        <v>0.4578782089761845</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>41933</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29858</v>
+        <v>30129</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>55542</v>
+        <v>56273</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1976835769015625</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1407596080587053</v>
+        <v>0.142038487182557</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2618444500220123</v>
+        <v>0.2652875012567947</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -904,19 +904,19 @@
         <v>23865</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16789</v>
+        <v>15913</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33657</v>
+        <v>32589</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2077186438503762</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1461269718479602</v>
+        <v>0.1385014521765308</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.292948716477319</v>
+        <v>0.2836449829975302</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>63</v>
@@ -925,19 +925,19 @@
         <v>65798</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>50890</v>
+        <v>51448</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>83723</v>
+        <v>82042</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2012092916143128</v>
+        <v>0.2012092916143127</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1556225927161634</v>
+        <v>0.1573281831673161</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2560234660720655</v>
+        <v>0.2508846284646239</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>16224</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9729</v>
+        <v>10052</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25483</v>
+        <v>25694</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07648607651747066</v>
+        <v>0.07648607651747064</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04586753834304844</v>
+        <v>0.0473883841758819</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1201370361530383</v>
+        <v>0.1211302204510337</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -975,19 +975,19 @@
         <v>7689</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3799</v>
+        <v>3588</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14319</v>
+        <v>14304</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06692014338098264</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03306718711597215</v>
+        <v>0.0312332894760905</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.124626895907593</v>
+        <v>0.1244965176785788</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -996,19 +996,19 @@
         <v>23913</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15797</v>
+        <v>16082</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33780</v>
+        <v>34236</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07312518701144816</v>
+        <v>0.07312518701144814</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04830823969790171</v>
+        <v>0.0491790389001318</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1032983050094454</v>
+        <v>0.1046929965080759</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>15972</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8970</v>
+        <v>8999</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25995</v>
+        <v>25818</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07529767191242798</v>
+        <v>0.07529767191242796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04228517396613473</v>
+        <v>0.04242457981222577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1225489249283356</v>
+        <v>0.1217136733439962</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9863</v>
+        <v>10032</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02269949384963828</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08584438568842798</v>
+        <v>0.08731363984473446</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -1067,19 +1067,19 @@
         <v>18580</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10841</v>
+        <v>10348</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29466</v>
+        <v>29414</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05681785795545598</v>
+        <v>0.05681785795545599</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0331527475630518</v>
+        <v>0.03164344384223911</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09010773824092937</v>
+        <v>0.0899469858181173</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>11288</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6031</v>
+        <v>5690</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20421</v>
+        <v>19299</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05321699990664632</v>
+        <v>0.05321699990664631</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02843401949089241</v>
+        <v>0.02682338374296991</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0962693315628079</v>
+        <v>0.09098340931733921</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5331</v>
+        <v>4753</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01297240797946388</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04640198645200482</v>
+        <v>0.04137016829386875</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -1138,19 +1138,19 @@
         <v>12779</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6989</v>
+        <v>6957</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22437</v>
+        <v>22182</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03907748787448481</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02137317442819165</v>
+        <v>0.02127508392778404</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06861231910419313</v>
+        <v>0.0678331584669912</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>2535</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7422</v>
+        <v>7520</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01195258627905147</v>
+        <v>0.01195258627905146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002701192998459489</v>
+        <v>0.002743963357118932</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03498947430994519</v>
+        <v>0.03544933394318023</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2322</v>
+        <v>2793</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004019354008638976</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02020610084494619</v>
+        <v>0.02430808247699615</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1209,19 +1209,19 @@
         <v>2997</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7932</v>
+        <v>7959</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009165328966456754</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002502097728766406</v>
+        <v>0.00249167197216438</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02425587902197145</v>
+        <v>0.02433892451992078</v>
       </c>
     </row>
     <row r="11">
@@ -1238,19 +1238,19 @@
         <v>3833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>882</v>
+        <v>1085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11804</v>
+        <v>11219</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01807139722511547</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004159384099279393</v>
+        <v>0.005112774939376005</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05564715779415175</v>
+        <v>0.05289123024843471</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1272,19 +1272,19 @@
         <v>3833</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10359</v>
+        <v>11655</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01172220280503481</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002675216166454324</v>
+        <v>0.002686945320091632</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03167759601019835</v>
+        <v>0.03564103178366117</v>
       </c>
     </row>
     <row r="12">
@@ -1301,19 +1301,19 @@
         <v>4184</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1486</v>
+        <v>1456</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10650</v>
+        <v>9666</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01972676844777632</v>
+        <v>0.01972676844777631</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007004227926448766</v>
+        <v>0.006866227565896835</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05020800815546425</v>
+        <v>0.04556767362502107</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>4184</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1451</v>
+        <v>1432</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9868</v>
+        <v>9253</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01279597684408257</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004436160309133136</v>
+        <v>0.004379805022066675</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03017542222451592</v>
+        <v>0.02829442646884179</v>
       </c>
     </row>
     <row r="13">
@@ -1439,19 +1439,19 @@
         <v>62464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45941</v>
+        <v>47359</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>81979</v>
+        <v>83859</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1368117269379544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1006223518834577</v>
+        <v>0.1037271718690367</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1795537828424528</v>
+        <v>0.1836713826517122</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -1460,19 +1460,19 @@
         <v>97389</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>84564</v>
+        <v>83279</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>111687</v>
+        <v>110558</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3985830811278762</v>
+        <v>0.3985830811278763</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3460923713263168</v>
+        <v>0.3408322095704312</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4570991185596729</v>
+        <v>0.4524783430269462</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>189</v>
@@ -1481,19 +1481,19 @@
         <v>159854</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>135901</v>
+        <v>135063</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>183642</v>
+        <v>185491</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2280659783995637</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1938925343064999</v>
+        <v>0.1926973366787641</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2620057415382415</v>
+        <v>0.2646435451648563</v>
       </c>
     </row>
     <row r="15">
@@ -1510,19 +1510,19 @@
         <v>228910</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>204969</v>
+        <v>205975</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>254853</v>
+        <v>253534</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.501366971258281</v>
+        <v>0.5013669712582811</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4489320583280794</v>
+        <v>0.4511351720248293</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5581893589371644</v>
+        <v>0.5553012677878847</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>123</v>
@@ -1531,19 +1531,19 @@
         <v>91953</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>79442</v>
+        <v>78823</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>107014</v>
+        <v>106596</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3763354200319807</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3251301921809573</v>
+        <v>0.3225962921817125</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4379717894423112</v>
+        <v>0.4362626333821651</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>345</v>
@@ -1552,19 +1552,19 @@
         <v>320863</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>294707</v>
+        <v>292639</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>351743</v>
+        <v>348015</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.4577806107432115</v>
+        <v>0.4577806107432116</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4204629652301318</v>
+        <v>0.4175129230064346</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5018375874310294</v>
+        <v>0.4965193160492549</v>
       </c>
     </row>
     <row r="16">
@@ -1581,19 +1581,19 @@
         <v>95542</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77182</v>
+        <v>78249</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116294</v>
+        <v>116373</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.209259929754868</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1690475854884778</v>
+        <v>0.1713833831741441</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2547106844988422</v>
+        <v>0.2548844329551756</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -1602,19 +1602,19 @@
         <v>33923</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25383</v>
+        <v>25416</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45513</v>
+        <v>47566</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1388351427238656</v>
+        <v>0.1388351427238657</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1038852553884918</v>
+        <v>0.1040191476317833</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1862706412954234</v>
+        <v>0.1946724240171518</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>127</v>
@@ -1623,19 +1623,19 @@
         <v>129465</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108850</v>
+        <v>108530</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>153072</v>
+        <v>151824</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1847096452336872</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1552987864046035</v>
+        <v>0.1548415389010669</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2183905806519121</v>
+        <v>0.2166099939460401</v>
       </c>
     </row>
     <row r="17">
@@ -1652,19 +1652,19 @@
         <v>29842</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18582</v>
+        <v>19229</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45043</v>
+        <v>46792</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.065360333192976</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0406981316282393</v>
+        <v>0.04211688024659913</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09865430579138904</v>
+        <v>0.1024866785394976</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1673,19 +1673,19 @@
         <v>8233</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3678</v>
+        <v>3542</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15793</v>
+        <v>16661</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.0336952764891969</v>
+        <v>0.03369527648919691</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01505370494695588</v>
+        <v>0.01449595523578088</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06463740245521207</v>
+        <v>0.06818833858226857</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -1694,19 +1694,19 @@
         <v>38075</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25896</v>
+        <v>25401</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57215</v>
+        <v>54382</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05432180280856917</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0369463877179988</v>
+        <v>0.03624049008563707</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08162942424276629</v>
+        <v>0.0775873887085709</v>
       </c>
     </row>
     <row r="18">
@@ -1723,19 +1723,19 @@
         <v>18458</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10017</v>
+        <v>9928</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30893</v>
+        <v>32482</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04042763766495329</v>
+        <v>0.04042763766495328</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02193968674410333</v>
+        <v>0.02174510438059792</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06766409919720819</v>
+        <v>0.07114387349666118</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -1744,19 +1744,19 @@
         <v>7428</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3243</v>
+        <v>3578</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14113</v>
+        <v>14029</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03040132413275946</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01327123700352548</v>
+        <v>0.01464380279328021</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05776121351262578</v>
+        <v>0.05741471030081609</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>23</v>
@@ -1765,19 +1765,19 @@
         <v>25886</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16298</v>
+        <v>15796</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>39401</v>
+        <v>39176</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.03693243575819332</v>
+        <v>0.03693243575819333</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02325197187343256</v>
+        <v>0.02253624025422785</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05621475736964901</v>
+        <v>0.05589295238132926</v>
       </c>
     </row>
     <row r="19">
@@ -1794,19 +1794,19 @@
         <v>10738</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5052</v>
+        <v>5300</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19741</v>
+        <v>20296</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02351829270445611</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01106540472417145</v>
+        <v>0.01160901202207836</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04323802519470707</v>
+        <v>0.04445225531535821</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1815,19 +1815,19 @@
         <v>4109</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1520</v>
+        <v>1541</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8639</v>
+        <v>9392</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01681821492008926</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00622012832013115</v>
+        <v>0.006304873309218228</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03535624906673756</v>
+        <v>0.03843987744205602</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -1836,19 +1836,19 @@
         <v>14847</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8607</v>
+        <v>8544</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25341</v>
+        <v>24614</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02118262620328746</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01227984546867327</v>
+        <v>0.01219003316306833</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03615375975731419</v>
+        <v>0.03511745548417582</v>
       </c>
     </row>
     <row r="20">
@@ -1865,19 +1865,19 @@
         <v>1730</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5128</v>
+        <v>5125</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003789810269980061</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0009419493539444689</v>
+        <v>0.0009467802255285418</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01123112829718964</v>
+        <v>0.01122509169775475</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3741</v>
+        <v>3041</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003012394352991072</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01530910625674199</v>
+        <v>0.01244520798707724</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1907,19 +1907,19 @@
         <v>2466</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6144</v>
+        <v>6465</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003518800831996637</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001062933729126613</v>
+        <v>0.001051925619439441</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008765772827553408</v>
+        <v>0.009223941016585184</v>
       </c>
     </row>
     <row r="21">
@@ -1983,19 +1983,19 @@
         <v>8887</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4365</v>
+        <v>4105</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17013</v>
+        <v>16683</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01946529821653103</v>
+        <v>0.01946529821653102</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0095605120517675</v>
+        <v>0.008991764999711393</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03726198498613915</v>
+        <v>0.03654054512133646</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2877</v>
+        <v>2738</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.002319146221240572</v>
+        <v>0.002319146221240573</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01177335437358284</v>
+        <v>0.01120672851859344</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2025,19 +2025,19 @@
         <v>9454</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4730</v>
+        <v>4528</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17261</v>
+        <v>17388</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01348810002149091</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006747893503870825</v>
+        <v>0.006459523156661125</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02462638178002344</v>
+        <v>0.02480753789177862</v>
       </c>
     </row>
     <row r="23">
@@ -2129,19 +2129,19 @@
         <v>107862</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>88281</v>
+        <v>90079</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>128929</v>
+        <v>128514</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2135175424199874</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1747548587926367</v>
+        <v>0.1783141620541188</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.255220138154458</v>
+        <v>0.2543976664692961</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>179</v>
@@ -2150,19 +2150,19 @@
         <v>114475</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>99589</v>
+        <v>101348</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>127893</v>
+        <v>129031</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4296609922873922</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3737890117912589</v>
+        <v>0.3803911944920932</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4800204429173149</v>
+        <v>0.4842928658411967</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>290</v>
@@ -2171,19 +2171,19 @@
         <v>222338</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>199936</v>
+        <v>198296</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>246751</v>
+        <v>248265</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2881514357813644</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2591179338237234</v>
+        <v>0.2569925130818056</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3197906011975822</v>
+        <v>0.3217525210806055</v>
       </c>
     </row>
     <row r="25">
@@ -2200,19 +2200,19 @@
         <v>210839</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>187058</v>
+        <v>189461</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>235402</v>
+        <v>235364</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4173640454187687</v>
+        <v>0.4173640454187688</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3702881724463672</v>
+        <v>0.3750454205220336</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4659865672022455</v>
+        <v>0.4659106574674945</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>111</v>
@@ -2221,19 +2221,19 @@
         <v>83413</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>71258</v>
+        <v>70156</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>97195</v>
+        <v>97509</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3130738101612157</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2674524264520507</v>
+        <v>0.2633153207713262</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3648040039800471</v>
+        <v>0.3659809695342213</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>330</v>
@@ -2242,19 +2242,19 @@
         <v>294252</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>267444</v>
+        <v>264227</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>321641</v>
+        <v>320285</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3813528394274697</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3466094526504673</v>
+        <v>0.3424393278242124</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.416848453388174</v>
+        <v>0.4150918529991313</v>
       </c>
     </row>
     <row r="26">
@@ -2271,19 +2271,19 @@
         <v>117641</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>96916</v>
+        <v>97659</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>139607</v>
+        <v>141853</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2328739196659393</v>
+        <v>0.2328739196659394</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1918481185868088</v>
+        <v>0.1933202365478028</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2763565527948862</v>
+        <v>0.2808034725832901</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -2292,19 +2292,19 @@
         <v>42920</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>32725</v>
+        <v>32587</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55137</v>
+        <v>55259</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1610932555255474</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1228268849228615</v>
+        <v>0.122308654717213</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2069466167847624</v>
+        <v>0.2074039351595562</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>155</v>
@@ -2313,19 +2313,19 @@
         <v>160561</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>138411</v>
+        <v>138409</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>189331</v>
+        <v>185570</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2080882024205206</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1793815529275378</v>
+        <v>0.1793789493249833</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2453743558781415</v>
+        <v>0.240499566441575</v>
       </c>
     </row>
     <row r="27">
@@ -2342,19 +2342,19 @@
         <v>38073</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>26885</v>
+        <v>26290</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>52432</v>
+        <v>52157</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.07536669575212507</v>
+        <v>0.07536669575212508</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05321925897507152</v>
+        <v>0.05204237012048376</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1037915912661256</v>
+        <v>0.1032476081895989</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -2363,19 +2363,19 @@
         <v>7338</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3113</v>
+        <v>3273</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>13462</v>
+        <v>13950</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02753986773076678</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0116855150623252</v>
+        <v>0.01228537802826497</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05052594873886037</v>
+        <v>0.05235768744970692</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>44</v>
@@ -2384,19 +2384,19 @@
         <v>45410</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>32703</v>
+        <v>32572</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>62451</v>
+        <v>62657</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05885218936967992</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04238377229903215</v>
+        <v>0.04221309171243298</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.080937176464497</v>
+        <v>0.08120448942175983</v>
       </c>
     </row>
     <row r="28">
@@ -2413,19 +2413,19 @@
         <v>17979</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10230</v>
+        <v>9767</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>31363</v>
+        <v>30358</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0355892379989973</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02025070278530217</v>
+        <v>0.01933377330069271</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.062085136079407</v>
+        <v>0.06009475105806776</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>11</v>
@@ -2434,19 +2434,19 @@
         <v>12095</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6391</v>
+        <v>6076</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>22340</v>
+        <v>22261</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04539703230051956</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02398838584483502</v>
+        <v>0.02280336207105337</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08384776730106705</v>
+        <v>0.08355289413063099</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>25</v>
@@ -2455,19 +2455,19 @@
         <v>30074</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>19197</v>
+        <v>19190</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>44672</v>
+        <v>44631</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03897584941127549</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02487990436953889</v>
+        <v>0.02487043561342511</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05789468008433282</v>
+        <v>0.05784239584064798</v>
       </c>
     </row>
     <row r="29">
@@ -2484,19 +2484,19 @@
         <v>9224</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4480</v>
+        <v>4302</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17508</v>
+        <v>16536</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01825962082018591</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008868563841744205</v>
+        <v>0.008515857381224807</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03465681256009811</v>
+        <v>0.03273414953552764</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -2505,19 +2505,19 @@
         <v>6191</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2556</v>
+        <v>2446</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13559</v>
+        <v>12586</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02323504199455833</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009594709906000459</v>
+        <v>0.009181051799981991</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0508923474526108</v>
+        <v>0.04723945825400639</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>16</v>
@@ -2526,19 +2526,19 @@
         <v>15415</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8569</v>
+        <v>9053</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>25110</v>
+        <v>24786</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01997762362611802</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0111060297434595</v>
+        <v>0.01173285565059152</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03254332809196366</v>
+        <v>0.03212298724739709</v>
       </c>
     </row>
     <row r="30">
@@ -2649,19 +2649,19 @@
         <v>3551</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8926</v>
+        <v>7889</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007028937923996218</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001840565338922391</v>
+        <v>0.001823697898976668</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01767004509186055</v>
+        <v>0.01561624069009862</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2683,19 +2683,19 @@
         <v>3551</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>963</v>
+        <v>910</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8582</v>
+        <v>8847</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.004601859963571828</v>
+        <v>0.004601859963571827</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001247411840511673</v>
+        <v>0.001179289476778117</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01112182603721226</v>
+        <v>0.01146640010554729</v>
       </c>
     </row>
     <row r="33">
@@ -2787,19 +2787,19 @@
         <v>147025</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>124220</v>
+        <v>124627</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>170958</v>
+        <v>174024</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.3036934206544695</v>
+        <v>0.3036934206544694</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2565885302801269</v>
+        <v>0.2574285784500128</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3531301124160367</v>
+        <v>0.359462752935721</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>156</v>
@@ -2808,19 +2808,19 @@
         <v>112720</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>99088</v>
+        <v>97418</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>128563</v>
+        <v>128898</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.4159131953225595</v>
+        <v>0.4159131953225594</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.365614296275579</v>
+        <v>0.3594543573416106</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4743726154867133</v>
+        <v>0.4756073149291868</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>294</v>
@@ -2829,19 +2829,19 @@
         <v>259745</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>231771</v>
+        <v>233997</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>288099</v>
+        <v>288107</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3439687481055782</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.306924541637936</v>
+        <v>0.3098725346657092</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3815170120821021</v>
+        <v>0.3815278101515913</v>
       </c>
     </row>
     <row r="35">
@@ -2858,19 +2858,19 @@
         <v>151389</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>127911</v>
+        <v>131092</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>173309</v>
+        <v>174717</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.312708494957041</v>
+        <v>0.3127084949570411</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2642113337567148</v>
+        <v>0.2707823915055784</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3579855509937775</v>
+        <v>0.3608928990923025</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>109</v>
@@ -2879,19 +2879,19 @@
         <v>73309</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>61159</v>
+        <v>61493</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>87431</v>
+        <v>86562</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2704958058062045</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2256653405528569</v>
+        <v>0.2268989487477232</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3226021473958629</v>
+        <v>0.3193983983780472</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>263</v>
@@ -2900,19 +2900,19 @@
         <v>224698</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>199002</v>
+        <v>199121</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>251743</v>
+        <v>250831</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2975584923557148</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2635303986927802</v>
+        <v>0.2636873066611213</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3333723765469963</v>
+        <v>0.332165372725029</v>
       </c>
     </row>
     <row r="36">
@@ -2929,19 +2929,19 @@
         <v>102585</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>83577</v>
+        <v>84424</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>124212</v>
+        <v>127002</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2118990351800532</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1726355279580242</v>
+        <v>0.1743860906062774</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2565708138020417</v>
+        <v>0.2623345838400864</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>54</v>
@@ -2950,19 +2950,19 @@
         <v>45450</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>34414</v>
+        <v>34440</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>60372</v>
+        <v>59389</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1677020254083593</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1269816056899416</v>
+        <v>0.1270771086670189</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2227596897824059</v>
+        <v>0.2191344228198071</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>140</v>
@@ -2971,19 +2971,19 @@
         <v>148035</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>124594</v>
+        <v>127383</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>174413</v>
+        <v>176538</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1960368660910523</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1649948147177111</v>
+        <v>0.1686875879557621</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2309678765075988</v>
+        <v>0.2337815486052822</v>
       </c>
     </row>
     <row r="37">
@@ -3000,19 +3000,19 @@
         <v>30022</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19465</v>
+        <v>18573</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>44534</v>
+        <v>42691</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.06201324837398691</v>
+        <v>0.0620132483739869</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04020677458151036</v>
+        <v>0.03836324663843032</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0919893370697582</v>
+        <v>0.08818212239061864</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>15</v>
@@ -3021,19 +3021,19 @@
         <v>12454</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6743</v>
+        <v>6932</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>21413</v>
+        <v>20086</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04595355109605728</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02488098038601105</v>
+        <v>0.02557869078406603</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07901005516319</v>
+        <v>0.07411324792938481</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>40</v>
@@ -3042,19 +3042,19 @@
         <v>42476</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>31348</v>
+        <v>30481</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>57655</v>
+        <v>58632</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0562494730630192</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0415128508277071</v>
+        <v>0.04036498212689933</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07635046880671337</v>
+        <v>0.07764452857782855</v>
       </c>
     </row>
     <row r="38">
@@ -3071,19 +3071,19 @@
         <v>20954</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>11443</v>
+        <v>12146</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>33966</v>
+        <v>34984</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.04328136070983574</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02363610458432543</v>
+        <v>0.02508851162017986</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.07016047090567934</v>
+        <v>0.07226209890731354</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>7</v>
@@ -3092,7 +3092,7 @@
         <v>5142</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2080</v>
+        <v>2258</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>10727</v>
@@ -3101,10 +3101,10 @@
         <v>0.0189747432631871</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.007675625079399362</v>
+        <v>0.008329862698337683</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03957983989695343</v>
+        <v>0.03957975749134918</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>24</v>
@@ -3113,19 +3113,19 @@
         <v>26096</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>15028</v>
+        <v>17507</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>41511</v>
+        <v>41046</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03455779144775117</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01990041674544712</v>
+        <v>0.02318405266428035</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0549718429758477</v>
+        <v>0.05435485553897268</v>
       </c>
     </row>
     <row r="39">
@@ -3142,19 +3142,19 @@
         <v>23824</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>15286</v>
+        <v>13985</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>40406</v>
+        <v>37273</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04921108378379615</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03157483991149591</v>
+        <v>0.02888795942373286</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.08346215266807801</v>
+        <v>0.07699027341092164</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>11</v>
@@ -3163,19 +3163,19 @@
         <v>13196</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>6521</v>
+        <v>6092</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>25717</v>
+        <v>24472</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.04869090709151558</v>
+        <v>0.04869090709151557</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02405976475679787</v>
+        <v>0.02247999798050721</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.09489150294860003</v>
+        <v>0.09029584605181709</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>31</v>
@@ -3184,19 +3184,19 @@
         <v>37020</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>23770</v>
+        <v>24901</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>53802</v>
+        <v>54937</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.04902439398980932</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03147805194034382</v>
+        <v>0.03297590594237176</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.07124812492180101</v>
+        <v>0.07275081038457887</v>
       </c>
     </row>
     <row r="40">
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4888</v>
+        <v>4974</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002924832065202504</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0100965826467331</v>
+        <v>0.01027422978749511</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -3234,19 +3234,19 @@
         <v>3678</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1316</v>
+        <v>1270</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>9662</v>
+        <v>9539</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01356960694987235</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.004857189875830201</v>
+        <v>0.004685848719929275</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03565110650755595</v>
+        <v>0.0351970513812597</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>6</v>
@@ -3255,19 +3255,19 @@
         <v>5094</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2049</v>
+        <v>2061</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>11059</v>
+        <v>11397</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.006745208602149201</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002713896977967653</v>
+        <v>0.002729739134118379</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01464508379101713</v>
+        <v>0.0150924822506375</v>
       </c>
     </row>
     <row r="41">
@@ -3284,19 +3284,19 @@
         <v>2978</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9271</v>
+        <v>9827</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.0061506127471316</v>
+        <v>0.006150612747131599</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.001389567763324016</v>
+        <v>0.001384912454359712</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01914966574767999</v>
+        <v>0.02029805495546581</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -3318,19 +3318,19 @@
         <v>2978</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>8931</v>
+        <v>8583</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.003943176997520101</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0008690706874248961</v>
+        <v>0.0008815187818045986</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01182679316221766</v>
+        <v>0.01136615566550605</v>
       </c>
     </row>
     <row r="42">
@@ -3347,19 +3347,19 @@
         <v>3930</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1106</v>
+        <v>1126</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10376</v>
+        <v>10297</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.008117911528483306</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.002285512244982125</v>
+        <v>0.002325660631243583</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02143311039417019</v>
+        <v>0.02126943751368237</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>6</v>
@@ -3368,19 +3368,19 @@
         <v>5068</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1931</v>
+        <v>2147</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>12624</v>
+        <v>12170</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01870016506224446</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.007125301328325748</v>
+        <v>0.007922316363330474</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.04657916392604768</v>
+        <v>0.0449044596509179</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>10</v>
@@ -3389,19 +3389,19 @@
         <v>8998</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4566</v>
+        <v>4519</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>18000</v>
+        <v>17751</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01191584934740566</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.006046417683881755</v>
+        <v>0.005984035026800949</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02383708451420292</v>
+        <v>0.0235070691294968</v>
       </c>
     </row>
     <row r="43">
@@ -3493,19 +3493,19 @@
         <v>343796</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>306744</v>
+        <v>308183</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>384278</v>
+        <v>380896</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2073582818766706</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.185010444634583</v>
+        <v>0.1858784898901168</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2317744849353044</v>
+        <v>0.229734681875528</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>518</v>
@@ -3514,19 +3514,19 @@
         <v>361894</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>335463</v>
+        <v>334623</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>388186</v>
+        <v>390362</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4035927109634445</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3741167012963902</v>
+        <v>0.3731799522070723</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4329141832276658</v>
+        <v>0.4353411469405987</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>854</v>
@@ -3535,19 +3535,19 @@
         <v>705691</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>656778</v>
+        <v>661705</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>751905</v>
+        <v>760123</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2762361365446014</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2570896552994077</v>
+        <v>0.2590182463238332</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2943262664481654</v>
+        <v>0.2975431363418838</v>
       </c>
     </row>
     <row r="45">
@@ -3564,19 +3564,19 @@
         <v>680843</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>637150</v>
+        <v>640348</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>723295</v>
+        <v>727769</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.4106453446180724</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3842925340576281</v>
+        <v>0.3862214202579053</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4362499411838253</v>
+        <v>0.4389487907828278</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>396</v>
@@ -3585,19 +3585,19 @@
         <v>290144</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>264591</v>
+        <v>265388</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>314283</v>
+        <v>317721</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.3235759688266371</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2950778631810394</v>
+        <v>0.2959675199447914</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3504961571720441</v>
+        <v>0.3543300252025917</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1074</v>
@@ -3606,19 +3606,19 @@
         <v>970987</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>923867</v>
+        <v>919270</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1022938</v>
+        <v>1022821</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.3800841844806838</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.3616392436674625</v>
+        <v>0.359840058988581</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.4004199150481558</v>
+        <v>0.4003739794258901</v>
       </c>
     </row>
     <row r="46">
@@ -3635,19 +3635,19 @@
         <v>357700</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>317901</v>
+        <v>319517</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>395430</v>
+        <v>396614</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2157443893126249</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.191739469204794</v>
+        <v>0.1927143375859413</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2385009810057378</v>
+        <v>0.2392149808964592</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>171</v>
@@ -3656,19 +3656,19 @@
         <v>146159</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>123146</v>
+        <v>126475</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>166994</v>
+        <v>169411</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1629996882654372</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1373348275724663</v>
+        <v>0.141048477739417</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1862353233299165</v>
+        <v>0.1889308469882239</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>485</v>
@@ -3677,19 +3677,19 @@
         <v>503859</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>462183</v>
+        <v>461484</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>548291</v>
+        <v>544148</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1972311148065229</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1809174324698066</v>
+        <v>0.1806437867482165</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2146235843783483</v>
+        <v>0.2130016337498887</v>
       </c>
     </row>
     <row r="47">
@@ -3706,19 +3706,19 @@
         <v>114161</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>94018</v>
+        <v>92616</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>140921</v>
+        <v>139969</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.06885523998871039</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.05670620345749405</v>
+        <v>0.05586063393399195</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.08499531447466768</v>
+        <v>0.08442152498354352</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>42</v>
@@ -3727,19 +3727,19 @@
         <v>35713</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>25182</v>
+        <v>25952</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>48671</v>
+        <v>48778</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.03982843887727934</v>
+        <v>0.03982843887727933</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02808355120276478</v>
+        <v>0.02894191001083044</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05427957296277657</v>
+        <v>0.05439821578668699</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>141</v>
@@ -3748,19 +3748,19 @@
         <v>149874</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>126749</v>
+        <v>123870</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>179971</v>
+        <v>176189</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.05866689639512011</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04961475704192649</v>
+        <v>0.0484879626031941</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.07044815443739393</v>
+        <v>0.06896748549560307</v>
       </c>
     </row>
     <row r="48">
@@ -3777,19 +3777,19 @@
         <v>73362</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>55424</v>
+        <v>55321</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>96509</v>
+        <v>94802</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.04424793207906423</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.03342874779512404</v>
+        <v>0.03336669267661993</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.05820861761849006</v>
+        <v>0.05717908751423339</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>29</v>
@@ -3798,19 +3798,19 @@
         <v>27274</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>18191</v>
+        <v>17660</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>40437</v>
+        <v>40173</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.03041655122864621</v>
+        <v>0.0304165512286462</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.02028701132377062</v>
+        <v>0.0196953712778083</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.04509626660892552</v>
+        <v>0.0448022496621235</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>88</v>
@@ -3819,19 +3819,19 @@
         <v>100636</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>80657</v>
+        <v>80170</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>126784</v>
+        <v>129296</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.03939314770455151</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.03157262725822786</v>
+        <v>0.03138169044754775</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.04962827223468728</v>
+        <v>0.05061168602498634</v>
       </c>
     </row>
     <row r="49">
@@ -3848,19 +3848,19 @@
         <v>55075</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>40142</v>
+        <v>41897</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>75065</v>
+        <v>76476</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.0332178192453798</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02421131340730679</v>
+        <v>0.02526992723892458</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04527504414646556</v>
+        <v>0.04612579051493502</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>25</v>
@@ -3869,19 +3869,19 @@
         <v>24986</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>16117</v>
+        <v>15867</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>37828</v>
+        <v>38414</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.02786545333512844</v>
+        <v>0.02786545333512843</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01797440907802036</v>
+        <v>0.01769520174803557</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.04218698946784533</v>
+        <v>0.04283991785360623</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>73</v>
@@ -3890,19 +3890,19 @@
         <v>80061</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>62008</v>
+        <v>60959</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>104851</v>
+        <v>100273</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.03133915053769416</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.02427228938022356</v>
+        <v>0.02386193215272229</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.04104305868059585</v>
+        <v>0.03925104292866643</v>
       </c>
     </row>
     <row r="50">
@@ -3919,19 +3919,19 @@
         <v>5682</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2576</v>
+        <v>2381</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>11529</v>
+        <v>11013</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.003426863257754318</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.001553788949949798</v>
+        <v>0.001435859573844916</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.006953396282299361</v>
+        <v>0.006642533775980329</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>6</v>
@@ -3940,19 +3940,19 @@
         <v>4875</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1996</v>
+        <v>1959</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>11364</v>
+        <v>10730</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.005437205205317119</v>
+        <v>0.005437205205317118</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.002226156884571579</v>
+        <v>0.002184981039228376</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.01267304527601622</v>
+        <v>0.01196628205215443</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>14</v>
@@ -3961,19 +3961,19 @@
         <v>10557</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>5885</v>
+        <v>6050</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>18260</v>
+        <v>18126</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.00413248887677271</v>
+        <v>0.004132488876772711</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.002303691256742944</v>
+        <v>0.002368141553109693</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.007147795269940784</v>
+        <v>0.007095328280464126</v>
       </c>
     </row>
     <row r="51">
@@ -3990,19 +3990,19 @@
         <v>6811</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>2727</v>
+        <v>2675</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>14571</v>
+        <v>15420</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.004107980313763362</v>
+        <v>0.004107980313763363</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.001644675688773803</v>
+        <v>0.001613282660139108</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.008788321625774798</v>
+        <v>0.009300442229542171</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>6811</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>2575</v>
+        <v>2485</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>14903</v>
+        <v>14961</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.002666088224047572</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.001007826117040896</v>
+        <v>0.0009727805020160716</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.00583371159316599</v>
+        <v>0.005856485213600366</v>
       </c>
     </row>
     <row r="52">
@@ -4053,19 +4053,19 @@
         <v>20553</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>13306</v>
+        <v>13410</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>31944</v>
+        <v>31928</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01239614930796002</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.008025348789878557</v>
+        <v>0.008088161803728499</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01926652974071588</v>
+        <v>0.01925713216018945</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>7</v>
@@ -4074,19 +4074,19 @@
         <v>5635</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>2183</v>
+        <v>2064</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>12926</v>
+        <v>11903</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.006283983298110118</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.002434258738611149</v>
+        <v>0.0023015863828946</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01441518882963106</v>
+        <v>0.01327417391367151</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>30</v>
@@ -4095,19 +4095,19 @@
         <v>26187</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>17028</v>
+        <v>17832</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>38408</v>
+        <v>38657</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01025079243000591</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.00666551520321886</v>
+        <v>0.006980015390317069</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01503458273202179</v>
+        <v>0.01513192030509756</v>
       </c>
     </row>
     <row r="53">
